--- a/Code/Results/Cases/Case_3_115/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_115/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017539497101978</v>
+        <v>1.039021124875183</v>
       </c>
       <c r="D2">
-        <v>1.036994518963458</v>
+        <v>1.047652440371431</v>
       </c>
       <c r="E2">
-        <v>1.032182330157262</v>
+        <v>1.048044455949791</v>
       </c>
       <c r="F2">
-        <v>1.044369360390329</v>
+        <v>1.059970098613571</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056165995989871</v>
+        <v>1.044724882390172</v>
       </c>
       <c r="J2">
-        <v>1.039207967967392</v>
+        <v>1.044115400443574</v>
       </c>
       <c r="K2">
-        <v>1.047961441659908</v>
+        <v>1.050414479020055</v>
       </c>
       <c r="L2">
-        <v>1.043210806897499</v>
+        <v>1.050805399678235</v>
       </c>
       <c r="M2">
-        <v>1.055243321768934</v>
+        <v>1.062698152631818</v>
       </c>
       <c r="N2">
-        <v>1.016909114582035</v>
+        <v>1.018640176534435</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021119705236791</v>
+        <v>1.039786323655679</v>
       </c>
       <c r="D3">
-        <v>1.039662072110385</v>
+        <v>1.048245561182424</v>
       </c>
       <c r="E3">
-        <v>1.035088262344681</v>
+        <v>1.048713355735134</v>
       </c>
       <c r="F3">
-        <v>1.047510346155106</v>
+        <v>1.060692375683804</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057294692628985</v>
+        <v>1.044914257711019</v>
       </c>
       <c r="J3">
-        <v>1.041050727730385</v>
+        <v>1.044526556064454</v>
       </c>
       <c r="K3">
-        <v>1.049811425425055</v>
+        <v>1.050820054402176</v>
       </c>
       <c r="L3">
-        <v>1.045291035414883</v>
+        <v>1.051286636303312</v>
       </c>
       <c r="M3">
-        <v>1.057569376930408</v>
+        <v>1.063234996180676</v>
       </c>
       <c r="N3">
-        <v>1.017524407842095</v>
+        <v>1.018777007648995</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023396704134218</v>
+        <v>1.040282170622021</v>
       </c>
       <c r="D4">
-        <v>1.041361236906075</v>
+        <v>1.04862994224295</v>
       </c>
       <c r="E4">
-        <v>1.036941755051317</v>
+        <v>1.049147175216379</v>
       </c>
       <c r="F4">
-        <v>1.049513010314844</v>
+        <v>1.061160743243147</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058003450212529</v>
+        <v>1.045035848890331</v>
       </c>
       <c r="J4">
-        <v>1.042220281361931</v>
+        <v>1.044792610248827</v>
       </c>
       <c r="K4">
-        <v>1.050984837035918</v>
+        <v>1.051082381177165</v>
       </c>
       <c r="L4">
-        <v>1.046613868057934</v>
+        <v>1.051598340488279</v>
       </c>
       <c r="M4">
-        <v>1.059048441430718</v>
+        <v>1.063582701084819</v>
       </c>
       <c r="N4">
-        <v>1.017914884188774</v>
+        <v>1.018865530562861</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024344728978047</v>
+        <v>1.040490793192375</v>
       </c>
       <c r="D5">
-        <v>1.042069273078272</v>
+        <v>1.048791675825067</v>
       </c>
       <c r="E5">
-        <v>1.037714703685513</v>
+        <v>1.049329789425624</v>
       </c>
       <c r="F5">
-        <v>1.050347987718432</v>
+        <v>1.061357883575054</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058296327316239</v>
+        <v>1.045086738105743</v>
       </c>
       <c r="J5">
-        <v>1.042706615292257</v>
+        <v>1.044904460194156</v>
       </c>
       <c r="K5">
-        <v>1.051472594703717</v>
+        <v>1.051192636131186</v>
       </c>
       <c r="L5">
-        <v>1.047164556866587</v>
+        <v>1.051729454007581</v>
       </c>
       <c r="M5">
-        <v>1.059664145554537</v>
+        <v>1.06372895373729</v>
       </c>
       <c r="N5">
-        <v>1.018077245615299</v>
+        <v>1.0189027412812</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024503372998904</v>
+        <v>1.040525831663231</v>
       </c>
       <c r="D6">
-        <v>1.042187790779037</v>
+        <v>1.048818839744013</v>
       </c>
       <c r="E6">
-        <v>1.037844122800271</v>
+        <v>1.049360464962581</v>
       </c>
       <c r="F6">
-        <v>1.050487782175654</v>
+        <v>1.061390998231597</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058345206853761</v>
+        <v>1.045095269248604</v>
       </c>
       <c r="J6">
-        <v>1.042787962796365</v>
+        <v>1.044923240296648</v>
       </c>
       <c r="K6">
-        <v>1.051554169563314</v>
+        <v>1.051211146784356</v>
       </c>
       <c r="L6">
-        <v>1.047256705139703</v>
+        <v>1.051751472783519</v>
       </c>
       <c r="M6">
-        <v>1.059767171613386</v>
+        <v>1.063753514694464</v>
       </c>
       <c r="N6">
-        <v>1.018104402665785</v>
+        <v>1.018908988857208</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.02340940759624</v>
+        <v>1.040284957587403</v>
       </c>
       <c r="D7">
-        <v>1.041370722247704</v>
+        <v>1.048632102788251</v>
       </c>
       <c r="E7">
-        <v>1.036952107608943</v>
+        <v>1.049149614389729</v>
       </c>
       <c r="F7">
-        <v>1.049524194365033</v>
+        <v>1.061163376507143</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058007383521683</v>
+        <v>1.045036529770445</v>
       </c>
       <c r="J7">
-        <v>1.042226800630679</v>
+        <v>1.044794104792006</v>
       </c>
       <c r="K7">
-        <v>1.050991376110759</v>
+        <v>1.051083854518054</v>
       </c>
       <c r="L7">
-        <v>1.046621247558866</v>
+        <v>1.05160009214839</v>
       </c>
       <c r="M7">
-        <v>1.059056692262426</v>
+        <v>1.063584655017602</v>
       </c>
       <c r="N7">
-        <v>1.017917060671904</v>
+        <v>1.018866027791874</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.018757813719235</v>
+        <v>1.039279578723622</v>
       </c>
       <c r="D8">
-        <v>1.037901698486836</v>
+        <v>1.047852764500149</v>
       </c>
       <c r="E8">
-        <v>1.033170062644964</v>
+        <v>1.048270306159387</v>
       </c>
       <c r="F8">
-        <v>1.045437146240996</v>
+        <v>1.060213985894119</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056551964492429</v>
+        <v>1.044789078257121</v>
       </c>
       <c r="J8">
-        <v>1.039835539402319</v>
+        <v>1.044254349711177</v>
       </c>
       <c r="K8">
-        <v>1.048591621862436</v>
+        <v>1.050551566525803</v>
       </c>
       <c r="L8">
-        <v>1.04391871487129</v>
+        <v>1.050967970309539</v>
       </c>
       <c r="M8">
-        <v>1.056034903486569</v>
+        <v>1.062879511765779</v>
       </c>
       <c r="N8">
-        <v>1.017118665678942</v>
+        <v>1.018686422260593</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010245208938511</v>
+        <v>1.037513515466408</v>
       </c>
       <c r="D9">
-        <v>1.031575542832028</v>
+        <v>1.046484094962631</v>
       </c>
       <c r="E9">
-        <v>1.026292307789171</v>
+        <v>1.046728577651718</v>
       </c>
       <c r="F9">
-        <v>1.037998744484325</v>
+        <v>1.058548841563838</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053818125487479</v>
+        <v>1.044345822800515</v>
       </c>
       <c r="J9">
-        <v>1.035441298362236</v>
+        <v>1.043303362700359</v>
       </c>
       <c r="K9">
-        <v>1.04417628991301</v>
+        <v>1.049612847335519</v>
       </c>
       <c r="L9">
-        <v>1.038972741894656</v>
+        <v>1.049856550084739</v>
       </c>
       <c r="M9">
-        <v>1.050503998464274</v>
+        <v>1.061639575070342</v>
       </c>
       <c r="N9">
-        <v>1.015651304722454</v>
+        <v>1.018369833831367</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004339676669054</v>
+        <v>1.036339985884746</v>
       </c>
       <c r="D10">
-        <v>1.027204318689035</v>
+        <v>1.045574877063405</v>
       </c>
       <c r="E10">
-        <v>1.021552423071927</v>
+        <v>1.045706077306734</v>
       </c>
       <c r="F10">
-        <v>1.032868337620293</v>
+        <v>1.057444125101401</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051876093523749</v>
+        <v>1.044045524194373</v>
       </c>
       <c r="J10">
-        <v>1.032382167322495</v>
+        <v>1.042669542133062</v>
       </c>
       <c r="K10">
-        <v>1.041099169274873</v>
+        <v>1.048986610959007</v>
       </c>
       <c r="L10">
-        <v>1.035543148183065</v>
+        <v>1.049117351915206</v>
       </c>
       <c r="M10">
-        <v>1.046668463504471</v>
+        <v>1.060814816195663</v>
       </c>
       <c r="N10">
-        <v>1.014629725201296</v>
+        <v>1.018158736701915</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.001723578461618</v>
+        <v>1.03583277208531</v>
       </c>
       <c r="D11">
-        <v>1.025272608633031</v>
+        <v>1.045181966778111</v>
       </c>
       <c r="E11">
-        <v>1.019460644975168</v>
+        <v>1.045264611391704</v>
       </c>
       <c r="F11">
-        <v>1.030603210496861</v>
+        <v>1.056967074983664</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051005481841282</v>
+        <v>1.043914366027329</v>
       </c>
       <c r="J11">
-        <v>1.031024829926684</v>
+        <v>1.042395148946265</v>
       </c>
       <c r="K11">
-        <v>1.039733155916378</v>
+        <v>1.048715361715556</v>
       </c>
       <c r="L11">
-        <v>1.034024662594375</v>
+        <v>1.048797705897433</v>
       </c>
       <c r="M11">
-        <v>1.044970185729204</v>
+        <v>1.060458151660875</v>
       </c>
       <c r="N11">
-        <v>1.014176458667798</v>
+        <v>1.018067326494092</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.000742598540896</v>
+        <v>1.035644512407795</v>
       </c>
       <c r="D12">
-        <v>1.024549015027423</v>
+        <v>1.045036142719993</v>
       </c>
       <c r="E12">
-        <v>1.018677510449792</v>
+        <v>1.045100826290834</v>
       </c>
       <c r="F12">
-        <v>1.02975502323732</v>
+        <v>1.056790074861964</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050677513601205</v>
+        <v>1.043865479680682</v>
       </c>
       <c r="J12">
-        <v>1.030515563480495</v>
+        <v>1.042293236835717</v>
       </c>
       <c r="K12">
-        <v>1.039220537844971</v>
+        <v>1.048614596433654</v>
       </c>
       <c r="L12">
-        <v>1.033455418621522</v>
+        <v>1.048679041630871</v>
       </c>
       <c r="M12">
-        <v>1.044333535396887</v>
+        <v>1.0603257417524</v>
       </c>
       <c r="N12">
-        <v>1.014006398260394</v>
+        <v>1.018033372613955</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000953446824785</v>
+        <v>1.035684888283916</v>
       </c>
       <c r="D13">
-        <v>1.024704506668449</v>
+        <v>1.045067416997745</v>
       </c>
       <c r="E13">
-        <v>1.018845777961382</v>
+        <v>1.045135949892203</v>
       </c>
       <c r="F13">
-        <v>1.02993727520057</v>
+        <v>1.056828033013053</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050748073386964</v>
+        <v>1.043875973571713</v>
       </c>
       <c r="J13">
-        <v>1.030625036164457</v>
+        <v>1.042315096865874</v>
       </c>
       <c r="K13">
-        <v>1.039330735230359</v>
+        <v>1.048636211413064</v>
       </c>
       <c r="L13">
-        <v>1.033577762269612</v>
+        <v>1.048704492483388</v>
       </c>
       <c r="M13">
-        <v>1.04447036648637</v>
+        <v>1.060354140876594</v>
       </c>
       <c r="N13">
-        <v>1.014042954538609</v>
+        <v>1.018040655831059</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.001642681245538</v>
+        <v>1.035817207570749</v>
       </c>
       <c r="D14">
-        <v>1.025212921306375</v>
+        <v>1.045169910449617</v>
       </c>
       <c r="E14">
-        <v>1.019396037815222</v>
+        <v>1.04525106887379</v>
       </c>
       <c r="F14">
-        <v>1.030533239733028</v>
+        <v>1.056952440055424</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050978466132521</v>
+        <v>1.043910328495799</v>
       </c>
       <c r="J14">
-        <v>1.030982838706375</v>
+        <v>1.042386724652544</v>
       </c>
       <c r="K14">
-        <v>1.039690890255712</v>
+        <v>1.04870703264646</v>
       </c>
       <c r="L14">
-        <v>1.033977716114731</v>
+        <v>1.048787895706134</v>
       </c>
       <c r="M14">
-        <v>1.04491768025794</v>
+        <v>1.06044720515382</v>
       </c>
       <c r="N14">
-        <v>1.01416243638082</v>
+        <v>1.018064519854048</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.002066104435747</v>
+        <v>1.035898752742931</v>
       </c>
       <c r="D15">
-        <v>1.025525361182452</v>
+        <v>1.04523307605288</v>
       </c>
       <c r="E15">
-        <v>1.019734248124066</v>
+        <v>1.045322023381402</v>
       </c>
       <c r="F15">
-        <v>1.030899521567387</v>
+        <v>1.057029117584272</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05111980747557</v>
+        <v>1.043931473416668</v>
       </c>
       <c r="J15">
-        <v>1.031202612647625</v>
+        <v>1.042430858228777</v>
       </c>
       <c r="K15">
-        <v>1.039912096677888</v>
+        <v>1.048750666501733</v>
       </c>
       <c r="L15">
-        <v>1.034223444688508</v>
+        <v>1.048839292044891</v>
       </c>
       <c r="M15">
-        <v>1.045192505605884</v>
+        <v>1.060504554613737</v>
       </c>
       <c r="N15">
-        <v>1.014235826457051</v>
+        <v>1.018079223273527</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.004512023715485</v>
+        <v>1.036373667810691</v>
       </c>
       <c r="D16">
-        <v>1.02733168094557</v>
+        <v>1.045600969984252</v>
       </c>
       <c r="E16">
-        <v>1.02169039773144</v>
+        <v>1.045735403172197</v>
       </c>
       <c r="F16">
-        <v>1.033017725259536</v>
+        <v>1.057475812920947</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051933237130706</v>
+        <v>1.044054205067817</v>
       </c>
       <c r="J16">
-        <v>1.032471545277086</v>
+        <v>1.04268775399224</v>
       </c>
       <c r="K16">
-        <v>1.041189104699825</v>
+        <v>1.049004611220135</v>
       </c>
       <c r="L16">
-        <v>1.035643204720523</v>
+        <v>1.049138575003764</v>
       </c>
       <c r="M16">
-        <v>1.046780365935828</v>
+        <v>1.060838496727028</v>
       </c>
       <c r="N16">
-        <v>1.014659572221364</v>
+        <v>1.018164803260365</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006030231903172</v>
+        <v>1.036671820523793</v>
       </c>
       <c r="D17">
-        <v>1.028454160024886</v>
+        <v>1.045831952309083</v>
       </c>
       <c r="E17">
-        <v>1.022906731302242</v>
+        <v>1.045995050549694</v>
       </c>
       <c r="F17">
-        <v>1.0343345561291</v>
+        <v>1.057756362624217</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05243544440177</v>
+        <v>1.044130890352298</v>
       </c>
       <c r="J17">
-        <v>1.033258633392228</v>
+        <v>1.042848913731827</v>
       </c>
       <c r="K17">
-        <v>1.041981023848939</v>
+        <v>1.049163882398769</v>
       </c>
       <c r="L17">
-        <v>1.036524699429769</v>
+        <v>1.049326424027571</v>
       </c>
       <c r="M17">
-        <v>1.0477662162169</v>
+        <v>1.061048094652149</v>
       </c>
       <c r="N17">
-        <v>1.014922414906065</v>
+        <v>1.018218484676265</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006910115023547</v>
+        <v>1.036845817768385</v>
       </c>
       <c r="D18">
-        <v>1.029105141244162</v>
+        <v>1.045966756193124</v>
       </c>
       <c r="E18">
-        <v>1.023612415564852</v>
+        <v>1.046146622164358</v>
       </c>
       <c r="F18">
-        <v>1.035098450392293</v>
+        <v>1.057920127738055</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052725516476395</v>
+        <v>1.044175510789883</v>
       </c>
       <c r="J18">
-        <v>1.033714584558766</v>
+        <v>1.042942920721423</v>
       </c>
       <c r="K18">
-        <v>1.042439707058474</v>
+        <v>1.0492567743041</v>
       </c>
       <c r="L18">
-        <v>1.037035646060345</v>
+        <v>1.049436034724586</v>
       </c>
       <c r="M18">
-        <v>1.048337645511045</v>
+        <v>1.061170393980281</v>
       </c>
       <c r="N18">
-        <v>1.015074677381467</v>
+        <v>1.018249795741509</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.007209183435251</v>
+        <v>1.036905161503488</v>
       </c>
       <c r="D19">
-        <v>1.029326480838825</v>
+        <v>1.046012733628255</v>
       </c>
       <c r="E19">
-        <v>1.023852401146224</v>
+        <v>1.046198325082339</v>
       </c>
       <c r="F19">
-        <v>1.035358215540185</v>
+        <v>1.057975988578614</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052823942583273</v>
+        <v>1.044190706724542</v>
       </c>
       <c r="J19">
-        <v>1.033869524042003</v>
+        <v>1.042974975520864</v>
       </c>
       <c r="K19">
-        <v>1.04259556341971</v>
+        <v>1.049288446593476</v>
       </c>
       <c r="L19">
-        <v>1.037209325931859</v>
+        <v>1.04947341613547</v>
       </c>
       <c r="M19">
-        <v>1.048531883498697</v>
+        <v>1.061212102366283</v>
       </c>
       <c r="N19">
-        <v>1.015126418669338</v>
+        <v>1.018260471922969</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.005867930907465</v>
+        <v>1.036639822254971</v>
       </c>
       <c r="D20">
-        <v>1.028334117234343</v>
+        <v>1.045807162236163</v>
       </c>
       <c r="E20">
-        <v>1.022776623157187</v>
+        <v>1.045967180033668</v>
       </c>
       <c r="F20">
-        <v>1.034193707989099</v>
+        <v>1.057726249327548</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052381858684365</v>
+        <v>1.04412267399306</v>
       </c>
       <c r="J20">
-        <v>1.033174512730513</v>
+        <v>1.042831622264667</v>
       </c>
       <c r="K20">
-        <v>1.041896393710315</v>
+        <v>1.049146794954108</v>
       </c>
       <c r="L20">
-        <v>1.036430457173138</v>
+        <v>1.049306265296619</v>
       </c>
       <c r="M20">
-        <v>1.047660817680886</v>
+        <v>1.061025602172128</v>
       </c>
       <c r="N20">
-        <v>1.014894323301805</v>
+        <v>1.018212725205734</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.001439977285776</v>
+        <v>1.035778238899309</v>
       </c>
       <c r="D21">
-        <v>1.025063375264568</v>
+        <v>1.04513972534472</v>
       </c>
       <c r="E21">
-        <v>1.019234171891291</v>
+        <v>1.045217163802742</v>
       </c>
       <c r="F21">
-        <v>1.030357933431438</v>
+        <v>1.056915799810791</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050910748775403</v>
+        <v>1.043900216467047</v>
       </c>
       <c r="J21">
-        <v>1.030877616769702</v>
+        <v>1.042365631774414</v>
       </c>
       <c r="K21">
-        <v>1.039584979096855</v>
+        <v>1.048686177856527</v>
       </c>
       <c r="L21">
-        <v>1.033860085057268</v>
+        <v>1.048763333686987</v>
       </c>
       <c r="M21">
-        <v>1.044786120260845</v>
+        <v>1.060419798064018</v>
       </c>
       <c r="N21">
-        <v>1.01412729927599</v>
+        <v>1.018057492491643</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9986022545886953</v>
+        <v>1.035237350475171</v>
       </c>
       <c r="D22">
-        <v>1.022971691031588</v>
+        <v>1.044720778413431</v>
       </c>
       <c r="E22">
-        <v>1.016971154107359</v>
+        <v>1.044746728088125</v>
       </c>
       <c r="F22">
-        <v>1.027906641573286</v>
+        <v>1.056407382037782</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049959214942826</v>
+        <v>1.043759374956589</v>
       </c>
       <c r="J22">
-        <v>1.029403918806397</v>
+        <v>1.042072702095548</v>
       </c>
       <c r="K22">
-        <v>1.038101408705216</v>
+        <v>1.048396505340748</v>
       </c>
       <c r="L22">
-        <v>1.032213743115104</v>
+        <v>1.048422356576052</v>
       </c>
       <c r="M22">
-        <v>1.042944818722565</v>
+        <v>1.060039317715065</v>
       </c>
       <c r="N22">
-        <v>1.013635191857085</v>
+        <v>1.017959891431966</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.000111808817133</v>
+        <v>1.03552400694532</v>
       </c>
       <c r="D23">
-        <v>1.024083949014184</v>
+        <v>1.044942803338784</v>
       </c>
       <c r="E23">
-        <v>1.018174293167619</v>
+        <v>1.044996007198162</v>
       </c>
       <c r="F23">
-        <v>1.029209961764943</v>
+        <v>1.056676794709322</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050466203875197</v>
+        <v>1.04383412968172</v>
       </c>
       <c r="J23">
-        <v>1.030188016020719</v>
+        <v>1.042227983777805</v>
       </c>
       <c r="K23">
-        <v>1.038890808523269</v>
+        <v>1.04855007181374</v>
       </c>
       <c r="L23">
-        <v>1.03308943162092</v>
+        <v>1.048603077901115</v>
       </c>
       <c r="M23">
-        <v>1.04392420889953</v>
+        <v>1.060240977808827</v>
       </c>
       <c r="N23">
-        <v>1.013897020716086</v>
+        <v>1.018011631440389</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005941285211152</v>
+        <v>1.036654280618073</v>
       </c>
       <c r="D24">
-        <v>1.028388370952294</v>
+        <v>1.045818363569106</v>
       </c>
       <c r="E24">
-        <v>1.022835425100012</v>
+        <v>1.045979773138297</v>
       </c>
       <c r="F24">
-        <v>1.034257364133589</v>
+        <v>1.057739855843513</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052406080583554</v>
+        <v>1.044126386948401</v>
       </c>
       <c r="J24">
-        <v>1.033212532940143</v>
+        <v>1.042839435518374</v>
       </c>
       <c r="K24">
-        <v>1.041934644396156</v>
+        <v>1.04915451606061</v>
       </c>
       <c r="L24">
-        <v>1.036473051112507</v>
+        <v>1.049315374031286</v>
       </c>
       <c r="M24">
-        <v>1.047708453854698</v>
+        <v>1.061035765418719</v>
       </c>
       <c r="N24">
-        <v>1.014907019926961</v>
+        <v>1.018215327663846</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.012485161827619</v>
+        <v>1.037969416017478</v>
       </c>
       <c r="D25">
-        <v>1.033237320645361</v>
+        <v>1.046837368539433</v>
       </c>
       <c r="E25">
-        <v>1.028096781192987</v>
+        <v>1.04712622310206</v>
       </c>
       <c r="F25">
-        <v>1.039951023497204</v>
+        <v>1.05897838281434</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054545509907715</v>
+        <v>1.044461264173919</v>
       </c>
       <c r="J25">
-        <v>1.036599534109936</v>
+        <v>1.043549191617121</v>
       </c>
       <c r="K25">
-        <v>1.045340685290016</v>
+        <v>1.04985560978693</v>
       </c>
       <c r="L25">
-        <v>1.040274043950391</v>
+        <v>1.050143577604928</v>
       </c>
       <c r="M25">
-        <v>1.051959264836722</v>
+        <v>1.061959807419966</v>
       </c>
       <c r="N25">
-        <v>1.016038087497287</v>
+        <v>1.018451688408978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_115/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_115/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039021124875183</v>
+        <v>1.017539497101978</v>
       </c>
       <c r="D2">
-        <v>1.047652440371431</v>
+        <v>1.036994518963458</v>
       </c>
       <c r="E2">
-        <v>1.048044455949791</v>
+        <v>1.032182330157262</v>
       </c>
       <c r="F2">
-        <v>1.059970098613571</v>
+        <v>1.044369360390329</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044724882390172</v>
+        <v>1.056165995989871</v>
       </c>
       <c r="J2">
-        <v>1.044115400443574</v>
+        <v>1.039207967967391</v>
       </c>
       <c r="K2">
-        <v>1.050414479020055</v>
+        <v>1.047961441659908</v>
       </c>
       <c r="L2">
-        <v>1.050805399678235</v>
+        <v>1.043210806897499</v>
       </c>
       <c r="M2">
-        <v>1.062698152631818</v>
+        <v>1.055243321768934</v>
       </c>
       <c r="N2">
-        <v>1.018640176534435</v>
+        <v>1.016909114582035</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039786323655679</v>
+        <v>1.02111970523679</v>
       </c>
       <c r="D3">
-        <v>1.048245561182424</v>
+        <v>1.039662072110385</v>
       </c>
       <c r="E3">
-        <v>1.048713355735134</v>
+        <v>1.035088262344681</v>
       </c>
       <c r="F3">
-        <v>1.060692375683804</v>
+        <v>1.047510346155106</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044914257711019</v>
+        <v>1.057294692628985</v>
       </c>
       <c r="J3">
-        <v>1.044526556064454</v>
+        <v>1.041050727730384</v>
       </c>
       <c r="K3">
-        <v>1.050820054402176</v>
+        <v>1.049811425425055</v>
       </c>
       <c r="L3">
-        <v>1.051286636303312</v>
+        <v>1.045291035414883</v>
       </c>
       <c r="M3">
-        <v>1.063234996180676</v>
+        <v>1.057569376930408</v>
       </c>
       <c r="N3">
-        <v>1.018777007648995</v>
+        <v>1.017524407842095</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040282170622021</v>
+        <v>1.023396704134219</v>
       </c>
       <c r="D4">
-        <v>1.04862994224295</v>
+        <v>1.041361236906076</v>
       </c>
       <c r="E4">
-        <v>1.049147175216379</v>
+        <v>1.036941755051317</v>
       </c>
       <c r="F4">
-        <v>1.061160743243147</v>
+        <v>1.049513010314845</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045035848890331</v>
+        <v>1.058003450212529</v>
       </c>
       <c r="J4">
-        <v>1.044792610248827</v>
+        <v>1.042220281361932</v>
       </c>
       <c r="K4">
-        <v>1.051082381177165</v>
+        <v>1.050984837035918</v>
       </c>
       <c r="L4">
-        <v>1.051598340488279</v>
+        <v>1.046613868057935</v>
       </c>
       <c r="M4">
-        <v>1.063582701084819</v>
+        <v>1.059048441430719</v>
       </c>
       <c r="N4">
-        <v>1.018865530562861</v>
+        <v>1.017914884188774</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040490793192375</v>
+        <v>1.024344728978047</v>
       </c>
       <c r="D5">
-        <v>1.048791675825067</v>
+        <v>1.042069273078272</v>
       </c>
       <c r="E5">
-        <v>1.049329789425624</v>
+        <v>1.037714703685513</v>
       </c>
       <c r="F5">
-        <v>1.061357883575054</v>
+        <v>1.050347987718432</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045086738105743</v>
+        <v>1.058296327316239</v>
       </c>
       <c r="J5">
-        <v>1.044904460194156</v>
+        <v>1.042706615292257</v>
       </c>
       <c r="K5">
-        <v>1.051192636131186</v>
+        <v>1.051472594703717</v>
       </c>
       <c r="L5">
-        <v>1.051729454007581</v>
+        <v>1.047164556866587</v>
       </c>
       <c r="M5">
-        <v>1.06372895373729</v>
+        <v>1.059664145554537</v>
       </c>
       <c r="N5">
-        <v>1.0189027412812</v>
+        <v>1.018077245615299</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040525831663231</v>
+        <v>1.024503372998905</v>
       </c>
       <c r="D6">
-        <v>1.048818839744013</v>
+        <v>1.042187790779038</v>
       </c>
       <c r="E6">
-        <v>1.049360464962581</v>
+        <v>1.037844122800272</v>
       </c>
       <c r="F6">
-        <v>1.061390998231597</v>
+        <v>1.050487782175655</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045095269248604</v>
+        <v>1.058345206853762</v>
       </c>
       <c r="J6">
-        <v>1.044923240296648</v>
+        <v>1.042787962796366</v>
       </c>
       <c r="K6">
-        <v>1.051211146784356</v>
+        <v>1.051554169563315</v>
       </c>
       <c r="L6">
-        <v>1.051751472783519</v>
+        <v>1.047256705139703</v>
       </c>
       <c r="M6">
-        <v>1.063753514694464</v>
+        <v>1.059767171613387</v>
       </c>
       <c r="N6">
-        <v>1.018908988857208</v>
+        <v>1.018104402665785</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040284957587403</v>
+        <v>1.023409407596241</v>
       </c>
       <c r="D7">
-        <v>1.048632102788251</v>
+        <v>1.041370722247704</v>
       </c>
       <c r="E7">
-        <v>1.049149614389729</v>
+        <v>1.036952107608944</v>
       </c>
       <c r="F7">
-        <v>1.061163376507143</v>
+        <v>1.049524194365034</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045036529770445</v>
+        <v>1.058007383521683</v>
       </c>
       <c r="J7">
-        <v>1.044794104792006</v>
+        <v>1.042226800630679</v>
       </c>
       <c r="K7">
-        <v>1.051083854518054</v>
+        <v>1.05099137611076</v>
       </c>
       <c r="L7">
-        <v>1.05160009214839</v>
+        <v>1.046621247558867</v>
       </c>
       <c r="M7">
-        <v>1.063584655017602</v>
+        <v>1.059056692262427</v>
       </c>
       <c r="N7">
-        <v>1.018866027791874</v>
+        <v>1.017917060671904</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039279578723622</v>
+        <v>1.018757813719235</v>
       </c>
       <c r="D8">
-        <v>1.047852764500149</v>
+        <v>1.037901698486836</v>
       </c>
       <c r="E8">
-        <v>1.048270306159387</v>
+        <v>1.033170062644964</v>
       </c>
       <c r="F8">
-        <v>1.060213985894119</v>
+        <v>1.045437146240996</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044789078257121</v>
+        <v>1.056551964492429</v>
       </c>
       <c r="J8">
-        <v>1.044254349711177</v>
+        <v>1.039835539402319</v>
       </c>
       <c r="K8">
-        <v>1.050551566525803</v>
+        <v>1.048591621862436</v>
       </c>
       <c r="L8">
-        <v>1.050967970309539</v>
+        <v>1.04391871487129</v>
       </c>
       <c r="M8">
-        <v>1.062879511765779</v>
+        <v>1.056034903486569</v>
       </c>
       <c r="N8">
-        <v>1.018686422260593</v>
+        <v>1.017118665678942</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037513515466408</v>
+        <v>1.010245208938511</v>
       </c>
       <c r="D9">
-        <v>1.046484094962631</v>
+        <v>1.031575542832028</v>
       </c>
       <c r="E9">
-        <v>1.046728577651718</v>
+        <v>1.026292307789171</v>
       </c>
       <c r="F9">
-        <v>1.058548841563838</v>
+        <v>1.037998744484325</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044345822800515</v>
+        <v>1.053818125487479</v>
       </c>
       <c r="J9">
-        <v>1.043303362700359</v>
+        <v>1.035441298362235</v>
       </c>
       <c r="K9">
-        <v>1.049612847335519</v>
+        <v>1.044176289913009</v>
       </c>
       <c r="L9">
-        <v>1.049856550084739</v>
+        <v>1.038972741894655</v>
       </c>
       <c r="M9">
-        <v>1.061639575070342</v>
+        <v>1.050503998464274</v>
       </c>
       <c r="N9">
-        <v>1.018369833831367</v>
+        <v>1.015651304722454</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036339985884746</v>
+        <v>1.004339676669054</v>
       </c>
       <c r="D10">
-        <v>1.045574877063405</v>
+        <v>1.027204318689035</v>
       </c>
       <c r="E10">
-        <v>1.045706077306734</v>
+        <v>1.021552423071927</v>
       </c>
       <c r="F10">
-        <v>1.057444125101401</v>
+        <v>1.032868337620294</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044045524194373</v>
+        <v>1.051876093523749</v>
       </c>
       <c r="J10">
-        <v>1.042669542133062</v>
+        <v>1.032382167322495</v>
       </c>
       <c r="K10">
-        <v>1.048986610959007</v>
+        <v>1.041099169274873</v>
       </c>
       <c r="L10">
-        <v>1.049117351915206</v>
+        <v>1.035543148183065</v>
       </c>
       <c r="M10">
-        <v>1.060814816195663</v>
+        <v>1.046668463504472</v>
       </c>
       <c r="N10">
-        <v>1.018158736701915</v>
+        <v>1.014629725201296</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03583277208531</v>
+        <v>1.001723578461617</v>
       </c>
       <c r="D11">
-        <v>1.045181966778111</v>
+        <v>1.025272608633029</v>
       </c>
       <c r="E11">
-        <v>1.045264611391704</v>
+        <v>1.019460644975168</v>
       </c>
       <c r="F11">
-        <v>1.056967074983664</v>
+        <v>1.030603210496861</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043914366027329</v>
+        <v>1.051005481841281</v>
       </c>
       <c r="J11">
-        <v>1.042395148946265</v>
+        <v>1.031024829926682</v>
       </c>
       <c r="K11">
-        <v>1.048715361715556</v>
+        <v>1.039733155916377</v>
       </c>
       <c r="L11">
-        <v>1.048797705897433</v>
+        <v>1.034024662594374</v>
       </c>
       <c r="M11">
-        <v>1.060458151660875</v>
+        <v>1.044970185729203</v>
       </c>
       <c r="N11">
-        <v>1.018067326494092</v>
+        <v>1.014176458667797</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035644512407795</v>
+        <v>1.000742598540896</v>
       </c>
       <c r="D12">
-        <v>1.045036142719993</v>
+        <v>1.024549015027423</v>
       </c>
       <c r="E12">
-        <v>1.045100826290834</v>
+        <v>1.018677510449792</v>
       </c>
       <c r="F12">
-        <v>1.056790074861964</v>
+        <v>1.02975502323732</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043865479680682</v>
+        <v>1.050677513601205</v>
       </c>
       <c r="J12">
-        <v>1.042293236835717</v>
+        <v>1.030515563480495</v>
       </c>
       <c r="K12">
-        <v>1.048614596433654</v>
+        <v>1.039220537844971</v>
       </c>
       <c r="L12">
-        <v>1.048679041630871</v>
+        <v>1.033455418621522</v>
       </c>
       <c r="M12">
-        <v>1.0603257417524</v>
+        <v>1.044333535396887</v>
       </c>
       <c r="N12">
-        <v>1.018033372613955</v>
+        <v>1.014006398260394</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035684888283916</v>
+        <v>1.000953446824785</v>
       </c>
       <c r="D13">
-        <v>1.045067416997745</v>
+        <v>1.024704506668449</v>
       </c>
       <c r="E13">
-        <v>1.045135949892203</v>
+        <v>1.018845777961381</v>
       </c>
       <c r="F13">
-        <v>1.056828033013053</v>
+        <v>1.02993727520057</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043875973571713</v>
+        <v>1.050748073386964</v>
       </c>
       <c r="J13">
-        <v>1.042315096865874</v>
+        <v>1.030625036164458</v>
       </c>
       <c r="K13">
-        <v>1.048636211413064</v>
+        <v>1.03933073523036</v>
       </c>
       <c r="L13">
-        <v>1.048704492483388</v>
+        <v>1.033577762269612</v>
       </c>
       <c r="M13">
-        <v>1.060354140876594</v>
+        <v>1.04447036648637</v>
       </c>
       <c r="N13">
-        <v>1.018040655831059</v>
+        <v>1.014042954538609</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035817207570749</v>
+        <v>1.001642681245538</v>
       </c>
       <c r="D14">
-        <v>1.045169910449617</v>
+        <v>1.025212921306375</v>
       </c>
       <c r="E14">
-        <v>1.04525106887379</v>
+        <v>1.019396037815222</v>
       </c>
       <c r="F14">
-        <v>1.056952440055424</v>
+        <v>1.030533239733028</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043910328495799</v>
+        <v>1.050978466132521</v>
       </c>
       <c r="J14">
-        <v>1.042386724652544</v>
+        <v>1.030982838706375</v>
       </c>
       <c r="K14">
-        <v>1.04870703264646</v>
+        <v>1.039690890255712</v>
       </c>
       <c r="L14">
-        <v>1.048787895706134</v>
+        <v>1.033977716114731</v>
       </c>
       <c r="M14">
-        <v>1.06044720515382</v>
+        <v>1.04491768025794</v>
       </c>
       <c r="N14">
-        <v>1.018064519854048</v>
+        <v>1.01416243638082</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035898752742931</v>
+        <v>1.002066104435746</v>
       </c>
       <c r="D15">
-        <v>1.04523307605288</v>
+        <v>1.025525361182452</v>
       </c>
       <c r="E15">
-        <v>1.045322023381402</v>
+        <v>1.019734248124065</v>
       </c>
       <c r="F15">
-        <v>1.057029117584272</v>
+        <v>1.030899521567387</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043931473416668</v>
+        <v>1.051119807475569</v>
       </c>
       <c r="J15">
-        <v>1.042430858228777</v>
+        <v>1.031202612647625</v>
       </c>
       <c r="K15">
-        <v>1.048750666501733</v>
+        <v>1.039912096677887</v>
       </c>
       <c r="L15">
-        <v>1.048839292044891</v>
+        <v>1.034223444688508</v>
       </c>
       <c r="M15">
-        <v>1.060504554613737</v>
+        <v>1.045192505605883</v>
       </c>
       <c r="N15">
-        <v>1.018079223273527</v>
+        <v>1.01423582645705</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036373667810691</v>
+        <v>1.004512023715484</v>
       </c>
       <c r="D16">
-        <v>1.045600969984252</v>
+        <v>1.027331680945569</v>
       </c>
       <c r="E16">
-        <v>1.045735403172197</v>
+        <v>1.02169039773144</v>
       </c>
       <c r="F16">
-        <v>1.057475812920947</v>
+        <v>1.033017725259535</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044054205067817</v>
+        <v>1.051933237130706</v>
       </c>
       <c r="J16">
-        <v>1.04268775399224</v>
+        <v>1.032471545277086</v>
       </c>
       <c r="K16">
-        <v>1.049004611220135</v>
+        <v>1.041189104699825</v>
       </c>
       <c r="L16">
-        <v>1.049138575003764</v>
+        <v>1.035643204720522</v>
       </c>
       <c r="M16">
-        <v>1.060838496727028</v>
+        <v>1.046780365935828</v>
       </c>
       <c r="N16">
-        <v>1.018164803260365</v>
+        <v>1.014659572221364</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036671820523793</v>
+        <v>1.006030231903171</v>
       </c>
       <c r="D17">
-        <v>1.045831952309083</v>
+        <v>1.028454160024885</v>
       </c>
       <c r="E17">
-        <v>1.045995050549694</v>
+        <v>1.022906731302241</v>
       </c>
       <c r="F17">
-        <v>1.057756362624217</v>
+        <v>1.0343345561291</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044130890352298</v>
+        <v>1.05243544440177</v>
       </c>
       <c r="J17">
-        <v>1.042848913731827</v>
+        <v>1.033258633392228</v>
       </c>
       <c r="K17">
-        <v>1.049163882398769</v>
+        <v>1.041981023848938</v>
       </c>
       <c r="L17">
-        <v>1.049326424027571</v>
+        <v>1.036524699429769</v>
       </c>
       <c r="M17">
-        <v>1.061048094652149</v>
+        <v>1.047766216216899</v>
       </c>
       <c r="N17">
-        <v>1.018218484676265</v>
+        <v>1.014922414906064</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036845817768385</v>
+        <v>1.006910115023548</v>
       </c>
       <c r="D18">
-        <v>1.045966756193124</v>
+        <v>1.029105141244163</v>
       </c>
       <c r="E18">
-        <v>1.046146622164358</v>
+        <v>1.023612415564852</v>
       </c>
       <c r="F18">
-        <v>1.057920127738055</v>
+        <v>1.035098450392294</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044175510789883</v>
+        <v>1.052725516476395</v>
       </c>
       <c r="J18">
-        <v>1.042942920721423</v>
+        <v>1.033714584558766</v>
       </c>
       <c r="K18">
-        <v>1.0492567743041</v>
+        <v>1.042439707058474</v>
       </c>
       <c r="L18">
-        <v>1.049436034724586</v>
+        <v>1.037035646060346</v>
       </c>
       <c r="M18">
-        <v>1.061170393980281</v>
+        <v>1.048337645511045</v>
       </c>
       <c r="N18">
-        <v>1.018249795741509</v>
+        <v>1.015074677381467</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036905161503488</v>
+        <v>1.007209183435251</v>
       </c>
       <c r="D19">
-        <v>1.046012733628255</v>
+        <v>1.029326480838826</v>
       </c>
       <c r="E19">
-        <v>1.046198325082339</v>
+        <v>1.023852401146224</v>
       </c>
       <c r="F19">
-        <v>1.057975988578614</v>
+        <v>1.035358215540186</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044190706724542</v>
+        <v>1.052823942583274</v>
       </c>
       <c r="J19">
-        <v>1.042974975520864</v>
+        <v>1.033869524042003</v>
       </c>
       <c r="K19">
-        <v>1.049288446593476</v>
+        <v>1.042595563419711</v>
       </c>
       <c r="L19">
-        <v>1.04947341613547</v>
+        <v>1.03720932593186</v>
       </c>
       <c r="M19">
-        <v>1.061212102366283</v>
+        <v>1.048531883498698</v>
       </c>
       <c r="N19">
-        <v>1.018260471922969</v>
+        <v>1.015126418669338</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036639822254971</v>
+        <v>1.005867930907465</v>
       </c>
       <c r="D20">
-        <v>1.045807162236163</v>
+        <v>1.028334117234343</v>
       </c>
       <c r="E20">
-        <v>1.045967180033668</v>
+        <v>1.022776623157186</v>
       </c>
       <c r="F20">
-        <v>1.057726249327548</v>
+        <v>1.0341937079891</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04412267399306</v>
+        <v>1.052381858684365</v>
       </c>
       <c r="J20">
-        <v>1.042831622264667</v>
+        <v>1.033174512730513</v>
       </c>
       <c r="K20">
-        <v>1.049146794954108</v>
+        <v>1.041896393710315</v>
       </c>
       <c r="L20">
-        <v>1.049306265296619</v>
+        <v>1.036430457173138</v>
       </c>
       <c r="M20">
-        <v>1.061025602172128</v>
+        <v>1.047660817680886</v>
       </c>
       <c r="N20">
-        <v>1.018212725205734</v>
+        <v>1.014894323301805</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035778238899309</v>
+        <v>1.001439977285775</v>
       </c>
       <c r="D21">
-        <v>1.04513972534472</v>
+        <v>1.025063375264568</v>
       </c>
       <c r="E21">
-        <v>1.045217163802742</v>
+        <v>1.01923417189129</v>
       </c>
       <c r="F21">
-        <v>1.056915799810791</v>
+        <v>1.030357933431438</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043900216467047</v>
+        <v>1.050910748775402</v>
       </c>
       <c r="J21">
-        <v>1.042365631774414</v>
+        <v>1.030877616769702</v>
       </c>
       <c r="K21">
-        <v>1.048686177856527</v>
+        <v>1.039584979096854</v>
       </c>
       <c r="L21">
-        <v>1.048763333686987</v>
+        <v>1.033860085057267</v>
       </c>
       <c r="M21">
-        <v>1.060419798064018</v>
+        <v>1.044786120260845</v>
       </c>
       <c r="N21">
-        <v>1.018057492491643</v>
+        <v>1.01412729927599</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035237350475171</v>
+        <v>0.9986022545886951</v>
       </c>
       <c r="D22">
-        <v>1.044720778413431</v>
+        <v>1.022971691031587</v>
       </c>
       <c r="E22">
-        <v>1.044746728088125</v>
+        <v>1.016971154107358</v>
       </c>
       <c r="F22">
-        <v>1.056407382037782</v>
+        <v>1.027906641573286</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043759374956589</v>
+        <v>1.049959214942826</v>
       </c>
       <c r="J22">
-        <v>1.042072702095548</v>
+        <v>1.029403918806397</v>
       </c>
       <c r="K22">
-        <v>1.048396505340748</v>
+        <v>1.038101408705216</v>
       </c>
       <c r="L22">
-        <v>1.048422356576052</v>
+        <v>1.032213743115103</v>
       </c>
       <c r="M22">
-        <v>1.060039317715065</v>
+        <v>1.042944818722565</v>
       </c>
       <c r="N22">
-        <v>1.017959891431966</v>
+        <v>1.013635191857085</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03552400694532</v>
+        <v>1.000111808817133</v>
       </c>
       <c r="D23">
-        <v>1.044942803338784</v>
+        <v>1.024083949014184</v>
       </c>
       <c r="E23">
-        <v>1.044996007198162</v>
+        <v>1.018174293167619</v>
       </c>
       <c r="F23">
-        <v>1.056676794709322</v>
+        <v>1.029209961764944</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04383412968172</v>
+        <v>1.050466203875198</v>
       </c>
       <c r="J23">
-        <v>1.042227983777805</v>
+        <v>1.030188016020719</v>
       </c>
       <c r="K23">
-        <v>1.04855007181374</v>
+        <v>1.03889080852327</v>
       </c>
       <c r="L23">
-        <v>1.048603077901115</v>
+        <v>1.03308943162092</v>
       </c>
       <c r="M23">
-        <v>1.060240977808827</v>
+        <v>1.043924208899531</v>
       </c>
       <c r="N23">
-        <v>1.018011631440389</v>
+        <v>1.013897020716086</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036654280618073</v>
+        <v>1.005941285211152</v>
       </c>
       <c r="D24">
-        <v>1.045818363569106</v>
+        <v>1.028388370952294</v>
       </c>
       <c r="E24">
-        <v>1.045979773138297</v>
+        <v>1.022835425100012</v>
       </c>
       <c r="F24">
-        <v>1.057739855843513</v>
+        <v>1.03425736413359</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044126386948401</v>
+        <v>1.052406080583554</v>
       </c>
       <c r="J24">
-        <v>1.042839435518374</v>
+        <v>1.033212532940144</v>
       </c>
       <c r="K24">
-        <v>1.04915451606061</v>
+        <v>1.041934644396156</v>
       </c>
       <c r="L24">
-        <v>1.049315374031286</v>
+        <v>1.036473051112507</v>
       </c>
       <c r="M24">
-        <v>1.061035765418719</v>
+        <v>1.047708453854699</v>
       </c>
       <c r="N24">
-        <v>1.018215327663846</v>
+        <v>1.014907019926961</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037969416017478</v>
+        <v>1.012485161827619</v>
       </c>
       <c r="D25">
-        <v>1.046837368539433</v>
+        <v>1.033237320645362</v>
       </c>
       <c r="E25">
-        <v>1.04712622310206</v>
+        <v>1.028096781192987</v>
       </c>
       <c r="F25">
-        <v>1.05897838281434</v>
+        <v>1.039951023497204</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044461264173919</v>
+        <v>1.054545509907716</v>
       </c>
       <c r="J25">
-        <v>1.043549191617121</v>
+        <v>1.036599534109937</v>
       </c>
       <c r="K25">
-        <v>1.04985560978693</v>
+        <v>1.045340685290017</v>
       </c>
       <c r="L25">
-        <v>1.050143577604928</v>
+        <v>1.040274043950392</v>
       </c>
       <c r="M25">
-        <v>1.061959807419966</v>
+        <v>1.051959264836723</v>
       </c>
       <c r="N25">
-        <v>1.018451688408978</v>
+        <v>1.016038087497288</v>
       </c>
     </row>
   </sheetData>
